--- a/reports/replied.xlsx
+++ b/reports/replied.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,48 +448,528 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>support@ionos.fr</t>
+          <t>atwin@invitations.mailinblack.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Votre compte email</t>
+          <t>Re: Potential Business Collaboration Inquiry</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>support@ionos.fr</t>
+          <t>ene_ensinger_france@antispam.xefi.fr</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Votre compte email</t>
+          <t>Re: Potential Business Collaboration Inquiry</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>support@ionos.fr</t>
+          <t>cuartigiana1983@gmail.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Votre compte email</t>
+          <t>Re: Potential Business Collaboration Inquiry</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>support@ionos.fr</t>
+          <t>Contact@synergie.fr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Votre compte email</t>
+          <t>Réponse automatique : Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>info@anza.com.tr</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>out of work</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>atwin@invitations.mailinblack.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mti_france@invitations.mailinblack.com</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>euradif@invitations.mailinblack.com</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>jallatte@invitations.mailinblack.com</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BW-Kontakt@jab.de</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Automatische Antwort: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>alphi@invitations.mailinblack.com</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>marketing@mta.com.br</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>hello@phool.co</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Re:Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mtameratak@gmail.com</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>anita@ssjwallpanel.com</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[SPAM] Re：Potential Business Collaboration Inquiry </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>quaisud@invitations.mailinblack.com</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>admin3@jomaze.pt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Ausente | Out of the office Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>hf@cedon.de</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Out of office reply</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>greg@cyclops.gr</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Out of Office Re:Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>adam.modrzewski@dajar.pl</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[ Out of Office ]: </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>cadiou_industries@invitations.mailinblack.com</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>morcan@palm.com.tr</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>OUT OF OFFICE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>gpf_fermetures@invitations.mailinblack.com</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>melanie.gollong@edition-gollong.de</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AUTOREPLY Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A.Bonengel@fink-living.de</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Automatische Antwort: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mikailinan@gmail.com</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>petia@keten.bg</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>joe@fable.com</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>leul_menuiseries@invitations.mailinblack.com</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>cadwork_france@invitations.mailinblack.com</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Andrea.Horvatova@gbkv.cz</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>RE: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>alpha_coupe_france@invitations.mailinblack.com</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>aida@notabag.com</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Limited access to my emails Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ozustaogluhuseyin@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ynt: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Antonio.Strigaro@indinvestlt.it</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Risposta automatica: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>alpha_coupe_france@invitations.mailinblack.com</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>abronyahediye@gmail.com</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>liora@mercuratrading.site</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>liora@mercuratrading.site</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Re: test</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>mmajcherczyk@alda.company</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>patrizia@ceruttinox.it</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Fuori ufficio | Out of office Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ahmetsari@azradisticaret.com</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>admin@gmbtradelinkers.com</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[SPAM] EID HOLIDAYS Re: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ot@isogom.com</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>RE: Potential Business Collaboration Inquiry</t>
         </is>
       </c>
     </row>
